--- a/portugues/pt_troubleshooting.xlsx
+++ b/portugues/pt_troubleshooting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\portugues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A503A-47D0-4F55-9FC8-7FAD98AC0E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD908C4F-7276-4ED4-AC45-22F53FBF44EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3669,14 +3669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/portugues/pt_troubleshooting.xlsx
+++ b/portugues/pt_troubleshooting.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\portugues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9239B10-A715-41E0-AC23-27CBE0B248D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EECE59-B4DC-4BC4-8B0A-ECC4A618CFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pt" sheetId="1" r:id="rId1"/>
     <sheet name="en" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pt!$A$1:$G$523</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3692,10 +3695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,7 +3734,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
@@ -3783,7 +3787,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -3810,7 +3814,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3837,7 +3841,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3864,7 +3868,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3891,7 +3895,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3918,7 +3922,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3945,7 +3949,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3972,7 +3976,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3999,7 +4003,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4023,7 +4027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4050,7 +4054,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4077,7 +4081,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4104,7 +4108,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4131,7 +4135,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4158,7 +4162,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4185,7 +4189,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4212,7 +4216,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4239,7 +4243,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4266,7 +4270,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4293,7 +4297,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4320,7 +4324,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4347,7 +4351,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4374,7 +4378,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4401,7 +4405,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4428,7 +4432,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4455,7 +4459,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4482,7 +4486,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4509,7 +4513,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4536,7 +4540,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4563,7 +4567,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4590,7 +4594,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4617,7 +4621,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4644,7 +4648,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4671,7 +4675,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4698,7 +4702,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4725,7 +4729,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4752,7 +4756,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4779,7 +4783,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4806,7 +4810,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4833,7 +4837,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4860,7 +4864,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4887,7 +4891,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4914,7 +4918,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4941,7 +4945,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4968,7 +4972,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4995,7 +4999,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5022,7 +5026,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5049,7 +5053,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5076,7 +5080,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5103,7 +5107,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5130,7 +5134,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5157,7 +5161,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5184,7 +5188,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5211,7 +5215,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5238,7 +5242,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5265,7 +5269,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5292,7 +5296,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5319,7 +5323,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5346,7 +5350,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5373,7 +5377,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5400,7 +5404,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5427,7 +5431,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5454,7 +5458,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5481,7 +5485,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5508,7 +5512,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>66</v>
@@ -5535,7 +5539,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -5562,7 +5566,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5589,7 +5593,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5616,7 +5620,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5643,7 +5647,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5670,7 +5674,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5697,7 +5701,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5724,7 +5728,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5751,7 +5755,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5778,7 +5782,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5805,7 +5809,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5832,7 +5836,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5859,7 +5863,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5886,7 +5890,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5913,7 +5917,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5940,7 +5944,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5967,7 +5971,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5994,7 +5998,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6021,7 +6025,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6048,7 +6052,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6075,7 +6079,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6102,7 +6106,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6129,7 +6133,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6156,7 +6160,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6183,7 +6187,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6210,7 +6214,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6237,7 +6241,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6264,7 +6268,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6291,7 +6295,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6318,7 +6322,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6345,7 +6349,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6372,7 +6376,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6399,7 +6403,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6426,7 +6430,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6453,7 +6457,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6480,7 +6484,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6507,7 +6511,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6534,7 +6538,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6561,7 +6565,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6588,7 +6592,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6615,7 +6619,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6642,7 +6646,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6669,7 +6673,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6696,7 +6700,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6723,7 +6727,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -6750,7 +6754,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -6777,7 +6781,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6804,7 +6808,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6831,7 +6835,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6858,7 +6862,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6885,7 +6889,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6912,7 +6916,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6939,7 +6943,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6966,7 +6970,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6993,7 +6997,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7020,7 +7024,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7047,7 +7051,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7074,7 +7078,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7101,7 +7105,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -7128,7 +7132,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -7155,7 +7159,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -7182,7 +7186,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -7209,7 +7213,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -7236,7 +7240,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>130</v>
@@ -7263,7 +7267,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7290,7 +7294,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7317,7 +7321,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7344,7 +7348,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7371,7 +7375,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7398,7 +7402,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7425,7 +7429,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7452,7 +7456,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7479,7 +7483,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7506,7 +7510,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7533,7 +7537,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7560,7 +7564,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7587,7 +7591,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7614,7 +7618,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7641,7 +7645,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7668,7 +7672,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7695,7 +7699,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7722,7 +7726,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7749,7 +7753,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7776,7 +7780,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7803,7 +7807,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7830,7 +7834,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7857,7 +7861,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7884,7 +7888,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7911,7 +7915,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7938,7 +7942,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7965,7 +7969,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7992,7 +7996,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -8019,7 +8023,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -8046,7 +8050,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -8073,7 +8077,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -8100,7 +8104,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -8127,7 +8131,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -8154,7 +8158,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -8181,7 +8185,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -8208,7 +8212,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -8235,7 +8239,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -8262,7 +8266,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -8289,7 +8293,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -8316,7 +8320,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -8343,7 +8347,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -8370,7 +8374,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -8397,7 +8401,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -8424,7 +8428,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8451,7 +8455,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8478,7 +8482,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8505,7 +8509,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8532,7 +8536,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8559,7 +8563,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8586,7 +8590,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8613,7 +8617,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8640,7 +8644,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8667,7 +8671,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8694,7 +8698,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8721,7 +8725,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8748,7 +8752,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8775,7 +8779,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8802,7 +8806,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8829,7 +8833,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8856,7 +8860,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8883,7 +8887,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8910,7 +8914,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8934,7 +8938,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8961,7 +8965,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>194</v>
@@ -8988,7 +8992,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -9015,7 +9019,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -9042,7 +9046,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -9069,7 +9073,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -9096,7 +9100,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -9123,7 +9127,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -9150,7 +9154,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -9177,7 +9181,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -9204,7 +9208,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -9231,7 +9235,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -9258,7 +9262,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -9285,7 +9289,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -9312,7 +9316,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -9339,7 +9343,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -9366,7 +9370,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -9393,7 +9397,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -9420,7 +9424,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -9447,7 +9451,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -9474,7 +9478,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -9501,7 +9505,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -9528,7 +9532,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -9555,7 +9559,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -9582,7 +9586,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -9609,7 +9613,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -9636,7 +9640,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -9663,7 +9667,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -9690,7 +9694,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -10365,7 +10369,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -10392,7 +10396,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -10419,7 +10423,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -10446,7 +10450,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -10473,7 +10477,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -10500,7 +10504,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -10527,7 +10531,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -10554,7 +10558,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -10581,7 +10585,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -10608,7 +10612,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -10635,7 +10639,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -10662,7 +10666,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -10689,7 +10693,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>258</v>
@@ -10716,7 +10720,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -10743,7 +10747,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -10770,7 +10774,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -10797,7 +10801,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -10824,7 +10828,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -10851,7 +10855,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -10878,7 +10882,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -10905,7 +10909,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -10932,7 +10936,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -10959,7 +10963,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -10986,7 +10990,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -11013,7 +11017,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -11040,7 +11044,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -11067,7 +11071,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -11094,7 +11098,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -11121,7 +11125,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -11148,7 +11152,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -11175,7 +11179,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -11202,7 +11206,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -11229,7 +11233,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -11256,7 +11260,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -11283,7 +11287,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -11310,7 +11314,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -11337,7 +11341,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -11364,7 +11368,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -11391,7 +11395,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -11418,7 +11422,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -11445,7 +11449,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -11472,7 +11476,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -11499,7 +11503,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -11526,7 +11530,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -11553,7 +11557,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -11580,7 +11584,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -11607,7 +11611,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -11634,7 +11638,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -11661,7 +11665,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -11688,7 +11692,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -11715,7 +11719,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -11742,7 +11746,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -11769,7 +11773,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -11796,7 +11800,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -11823,7 +11827,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -11850,7 +11854,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -11877,7 +11881,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -11901,7 +11905,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -11925,7 +11929,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -11952,7 +11956,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -11979,7 +11983,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -12006,7 +12010,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -12033,7 +12037,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -12060,7 +12064,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -12087,7 +12091,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -12114,7 +12118,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -12141,7 +12145,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -12168,7 +12172,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -12195,7 +12199,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -12222,7 +12226,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -12249,7 +12253,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -12276,7 +12280,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -12303,7 +12307,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -12330,7 +12334,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -12357,7 +12361,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -12384,7 +12388,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -12411,7 +12415,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>322</v>
@@ -12438,7 +12442,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -12465,7 +12469,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -12492,7 +12496,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -12519,7 +12523,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -12546,7 +12550,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -12573,7 +12577,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -12600,7 +12604,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -12627,7 +12631,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -12654,7 +12658,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -12681,7 +12685,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -12708,7 +12712,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -12735,7 +12739,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -12762,7 +12766,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -12789,7 +12793,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -12816,7 +12820,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -12843,7 +12847,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -12870,7 +12874,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -12897,7 +12901,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -12924,7 +12928,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -12951,7 +12955,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -12978,7 +12982,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -13005,7 +13009,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -13032,7 +13036,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -13059,7 +13063,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -13086,7 +13090,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -13113,7 +13117,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -13140,7 +13144,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -13167,7 +13171,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -13194,7 +13198,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -13221,7 +13225,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -13248,7 +13252,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -13275,7 +13279,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -13302,7 +13306,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -13329,7 +13333,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -13356,7 +13360,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -13383,7 +13387,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -13410,7 +13414,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -13437,7 +13441,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -13464,7 +13468,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -13491,7 +13495,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -13518,7 +13522,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -13545,7 +13549,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -13572,7 +13576,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -13599,7 +13603,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -13626,7 +13630,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -13653,7 +13657,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -13680,7 +13684,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -13707,7 +13711,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -13734,7 +13738,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -13761,7 +13765,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -13788,7 +13792,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -13815,7 +13819,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -13842,7 +13846,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -13869,7 +13873,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -13896,7 +13900,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -13923,7 +13927,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -13950,7 +13954,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -13977,7 +13981,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -14004,7 +14008,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -14031,7 +14035,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -14058,7 +14062,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -14085,7 +14089,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -14112,7 +14116,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -14139,7 +14143,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>386</v>
@@ -14166,7 +14170,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -14193,7 +14197,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -14220,7 +14224,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -14247,7 +14251,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -14274,7 +14278,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -14301,7 +14305,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -14328,7 +14332,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -14355,7 +14359,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -14382,7 +14386,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -14409,7 +14413,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -14436,7 +14440,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -14463,7 +14467,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -14490,7 +14494,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -14517,7 +14521,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -14544,7 +14548,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -14571,7 +14575,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -14598,7 +14602,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -14625,7 +14629,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -14652,7 +14656,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -14679,7 +14683,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -14706,7 +14710,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -14733,7 +14737,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -14760,7 +14764,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -14787,7 +14791,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -14814,7 +14818,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -14841,7 +14845,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -14868,7 +14872,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -14895,7 +14899,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -14922,7 +14926,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -14949,7 +14953,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -14976,7 +14980,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -15003,7 +15007,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -15030,7 +15034,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -15057,7 +15061,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -15084,7 +15088,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -15111,7 +15115,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -15138,7 +15142,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -15165,7 +15169,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -15192,7 +15196,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -15219,7 +15223,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -15246,7 +15250,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -15273,7 +15277,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -15300,7 +15304,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -15327,7 +15331,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -15354,7 +15358,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -15381,7 +15385,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -15408,7 +15412,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -15435,7 +15439,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -15462,7 +15466,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -15489,7 +15493,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -15516,7 +15520,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -15543,7 +15547,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -15570,7 +15574,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -15597,7 +15601,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -15621,7 +15625,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -15648,7 +15652,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -15675,7 +15679,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -15702,7 +15706,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -15729,7 +15733,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -15756,7 +15760,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -15783,7 +15787,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -15810,7 +15814,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -15837,7 +15841,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -15864,7 +15868,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>450</v>
@@ -15891,7 +15895,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -15918,7 +15922,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -15945,7 +15949,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -15972,7 +15976,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -15999,7 +16003,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -16026,7 +16030,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -16053,7 +16057,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -16080,7 +16084,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -16107,7 +16111,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -16134,7 +16138,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -16161,7 +16165,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -16188,7 +16192,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -16215,7 +16219,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -16242,7 +16246,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -16269,7 +16273,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -16296,7 +16300,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -16323,7 +16327,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -16350,7 +16354,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -16377,7 +16381,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -16404,7 +16408,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -16431,7 +16435,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -16458,7 +16462,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -16485,7 +16489,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -16512,7 +16516,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -16539,7 +16543,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -16566,7 +16570,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -16593,7 +16597,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -16620,7 +16624,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -16647,7 +16651,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -16674,7 +16678,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -16701,7 +16705,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -16728,7 +16732,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -16755,7 +16759,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -16782,7 +16786,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -16809,7 +16813,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -16836,7 +16840,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -16863,7 +16867,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -16890,7 +16894,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -16917,7 +16921,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -16944,7 +16948,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -16971,7 +16975,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -16998,7 +17002,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -17025,7 +17029,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -17052,7 +17056,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -17079,7 +17083,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -17106,7 +17110,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -17133,7 +17137,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -17160,7 +17164,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -17187,7 +17191,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -17214,7 +17218,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -17241,7 +17245,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -17268,7 +17272,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -17295,7 +17299,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -17322,7 +17326,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -17349,7 +17353,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -17376,7 +17380,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -17403,7 +17407,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -17430,7 +17434,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -17457,7 +17461,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -17484,7 +17488,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -17511,7 +17515,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -17538,7 +17542,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -17565,7 +17569,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -17592,7 +17596,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <f t="shared" ref="A516:A523" si="8">A515+1</f>
         <v>514</v>
@@ -17619,7 +17623,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -17646,7 +17650,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -17673,7 +17677,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -17700,7 +17704,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -17727,7 +17731,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -17754,7 +17758,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -17781,7 +17785,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -17809,6 +17813,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G523" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sistemas de óleo lubrificante"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/portugues/pt_troubleshooting.xlsx
+++ b/portugues/pt_troubleshooting.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\portugues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\chatbot_hipotese\portugues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EECE59-B4DC-4BC4-8B0A-ECC4A618CFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7123C1-1255-4B7D-A155-05E8BAFBC791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pt" sheetId="1" r:id="rId1"/>
-    <sheet name="en" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pt!$A$1:$G$523</definedName>
@@ -3695,11 +3694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,7 +3732,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3760,7 +3758,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
@@ -3787,7 +3785,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -3814,7 +3812,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3841,7 +3839,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3868,7 +3866,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3895,7 +3893,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3922,7 +3920,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3949,7 +3947,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3976,7 +3974,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4003,7 +4001,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4027,7 +4025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4054,7 +4052,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4081,7 +4079,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4108,7 +4106,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4135,7 +4133,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4162,7 +4160,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4189,7 +4187,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4216,7 +4214,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4243,7 +4241,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4270,7 +4268,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4297,7 +4295,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4324,7 +4322,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4351,7 +4349,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4378,7 +4376,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4405,7 +4403,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4432,7 +4430,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4459,7 +4457,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4486,7 +4484,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4513,7 +4511,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4540,7 +4538,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4567,7 +4565,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4594,7 +4592,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4621,7 +4619,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4648,7 +4646,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4675,7 +4673,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4702,7 +4700,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4729,7 +4727,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4756,7 +4754,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4783,7 +4781,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4810,7 +4808,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4837,7 +4835,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4864,7 +4862,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4891,7 +4889,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4918,7 +4916,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4945,7 +4943,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4972,7 +4970,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4999,7 +4997,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5026,7 +5024,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5053,7 +5051,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5080,7 +5078,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5107,7 +5105,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5134,7 +5132,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5161,7 +5159,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5188,7 +5186,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5215,7 +5213,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5242,7 +5240,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5269,7 +5267,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5296,7 +5294,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5323,7 +5321,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5350,7 +5348,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5377,7 +5375,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5404,7 +5402,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5431,7 +5429,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5458,7 +5456,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5485,7 +5483,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5512,7 +5510,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>66</v>
@@ -5539,7 +5537,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -5566,7 +5564,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5593,7 +5591,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5620,7 +5618,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5647,7 +5645,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5674,7 +5672,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5701,7 +5699,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5728,7 +5726,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5755,7 +5753,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5782,7 +5780,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5809,7 +5807,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5836,7 +5834,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5863,7 +5861,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5890,7 +5888,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5917,7 +5915,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5944,7 +5942,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5971,7 +5969,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5998,7 +5996,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6025,7 +6023,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6052,7 +6050,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6079,7 +6077,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6106,7 +6104,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6133,7 +6131,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6160,7 +6158,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6187,7 +6185,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6214,7 +6212,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6241,7 +6239,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6268,7 +6266,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6295,7 +6293,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6322,7 +6320,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6349,7 +6347,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6376,7 +6374,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6403,7 +6401,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6430,7 +6428,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6457,7 +6455,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6484,7 +6482,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6511,7 +6509,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6538,7 +6536,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6565,7 +6563,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6592,7 +6590,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6619,7 +6617,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6646,7 +6644,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6673,7 +6671,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6700,7 +6698,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6727,7 +6725,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -6754,7 +6752,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -6781,7 +6779,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6808,7 +6806,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6835,7 +6833,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6862,7 +6860,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6889,7 +6887,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6916,7 +6914,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6943,7 +6941,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6970,7 +6968,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6997,7 +6995,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7024,7 +7022,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7051,7 +7049,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7078,7 +7076,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7105,7 +7103,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -7132,7 +7130,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -7159,7 +7157,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -7186,7 +7184,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -7213,7 +7211,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -7240,7 +7238,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>130</v>
@@ -7267,7 +7265,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -7294,7 +7292,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7321,7 +7319,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7348,7 +7346,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7375,7 +7373,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7402,7 +7400,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7429,7 +7427,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7456,7 +7454,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7483,7 +7481,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7510,7 +7508,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7537,7 +7535,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7564,7 +7562,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7591,7 +7589,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7618,7 +7616,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7645,7 +7643,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7672,7 +7670,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7699,7 +7697,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7726,7 +7724,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7753,7 +7751,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7780,7 +7778,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7807,7 +7805,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7834,7 +7832,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7861,7 +7859,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7888,7 +7886,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7915,7 +7913,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7942,7 +7940,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7969,7 +7967,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7996,7 +7994,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -8023,7 +8021,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -8050,7 +8048,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -8077,7 +8075,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -8104,7 +8102,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -8131,7 +8129,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -8158,7 +8156,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -8185,7 +8183,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -8212,7 +8210,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -8239,7 +8237,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -8266,7 +8264,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -8293,7 +8291,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -8320,7 +8318,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -8347,7 +8345,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -8374,7 +8372,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -8401,7 +8399,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -8428,7 +8426,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8455,7 +8453,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8482,7 +8480,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8509,7 +8507,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8536,7 +8534,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8563,7 +8561,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8590,7 +8588,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8617,7 +8615,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8644,7 +8642,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8671,7 +8669,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8698,7 +8696,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8725,7 +8723,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8752,7 +8750,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8779,7 +8777,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8806,7 +8804,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8833,7 +8831,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8860,7 +8858,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8887,7 +8885,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -8914,7 +8912,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -8938,7 +8936,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -8965,7 +8963,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>194</v>
@@ -8992,7 +8990,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -9019,7 +9017,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -9046,7 +9044,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -9073,7 +9071,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -9100,7 +9098,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -9127,7 +9125,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -9154,7 +9152,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -9181,7 +9179,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -9208,7 +9206,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -9235,7 +9233,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -9262,7 +9260,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -9289,7 +9287,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -9316,7 +9314,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -9343,7 +9341,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -9370,7 +9368,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -9397,7 +9395,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -9424,7 +9422,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -9451,7 +9449,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -9478,7 +9476,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -9505,7 +9503,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -9532,7 +9530,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -9559,7 +9557,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -9586,7 +9584,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -9613,7 +9611,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -9640,7 +9638,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -9667,7 +9665,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -9694,7 +9692,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -10369,7 +10367,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -10396,7 +10394,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -10423,7 +10421,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -10450,7 +10448,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -10477,7 +10475,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -10504,7 +10502,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -10531,7 +10529,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -10558,7 +10556,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -10585,7 +10583,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -10612,7 +10610,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -10639,7 +10637,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -10666,7 +10664,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -10693,7 +10691,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>258</v>
@@ -10720,7 +10718,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -10747,7 +10745,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -10774,7 +10772,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -10801,7 +10799,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -10828,7 +10826,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -10855,7 +10853,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -10882,7 +10880,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -10909,7 +10907,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -10936,7 +10934,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -10963,7 +10961,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -10990,7 +10988,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -11017,7 +11015,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -11044,7 +11042,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -11071,7 +11069,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -11098,7 +11096,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -11125,7 +11123,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -11152,7 +11150,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -11179,7 +11177,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -11206,7 +11204,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -11233,7 +11231,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -11260,7 +11258,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -11287,7 +11285,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -11314,7 +11312,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -11341,7 +11339,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -11368,7 +11366,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -11395,7 +11393,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -11422,7 +11420,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -11449,7 +11447,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -11476,7 +11474,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -11503,7 +11501,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -11530,7 +11528,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -11557,7 +11555,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -11584,7 +11582,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -11611,7 +11609,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -11638,7 +11636,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -11665,7 +11663,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -11692,7 +11690,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -11719,7 +11717,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -11746,7 +11744,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -11773,7 +11771,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -11800,7 +11798,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -11827,7 +11825,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -11854,7 +11852,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -11881,7 +11879,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -11905,7 +11903,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -11929,7 +11927,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -11956,7 +11954,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -11983,7 +11981,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -12010,7 +12008,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -12037,7 +12035,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -12064,7 +12062,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -12091,7 +12089,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -12118,7 +12116,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -12145,7 +12143,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -12172,7 +12170,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -12199,7 +12197,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -12226,7 +12224,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -12253,7 +12251,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -12280,7 +12278,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -12307,7 +12305,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -12334,7 +12332,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -12361,7 +12359,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -12388,7 +12386,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -12415,7 +12413,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>322</v>
@@ -12442,7 +12440,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -12469,7 +12467,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -12496,7 +12494,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -12523,7 +12521,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -12550,7 +12548,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -12577,7 +12575,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -12604,7 +12602,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -12631,7 +12629,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -12658,7 +12656,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -12685,7 +12683,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -12712,7 +12710,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -12739,7 +12737,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -12766,7 +12764,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -12793,7 +12791,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -12820,7 +12818,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -12847,7 +12845,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -12874,7 +12872,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -12901,7 +12899,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -12928,7 +12926,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -12955,7 +12953,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -12982,7 +12980,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -13009,7 +13007,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -13036,7 +13034,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -13063,7 +13061,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -13090,7 +13088,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -13117,7 +13115,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -13144,7 +13142,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -13171,7 +13169,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -13198,7 +13196,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -13225,7 +13223,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -13252,7 +13250,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -13279,7 +13277,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -13306,7 +13304,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -13333,7 +13331,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -13360,7 +13358,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -13387,7 +13385,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -13414,7 +13412,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -13441,7 +13439,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -13468,7 +13466,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -13495,7 +13493,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -13522,7 +13520,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -13549,7 +13547,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -13576,7 +13574,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -13603,7 +13601,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -13630,7 +13628,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -13657,7 +13655,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -13684,7 +13682,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -13711,7 +13709,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -13738,7 +13736,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -13765,7 +13763,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -13792,7 +13790,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -13819,7 +13817,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -13846,7 +13844,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -13873,7 +13871,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -13900,7 +13898,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -13927,7 +13925,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -13954,7 +13952,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -13981,7 +13979,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -14008,7 +14006,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -14035,7 +14033,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -14062,7 +14060,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -14089,7 +14087,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -14116,7 +14114,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -14143,7 +14141,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>386</v>
@@ -14170,7 +14168,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -14197,7 +14195,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -14224,7 +14222,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -14251,7 +14249,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -14278,7 +14276,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -14305,7 +14303,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -14332,7 +14330,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -14359,7 +14357,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -14386,7 +14384,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -14413,7 +14411,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -14440,7 +14438,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -14467,7 +14465,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -14494,7 +14492,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -14521,7 +14519,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -14548,7 +14546,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -14575,7 +14573,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -14602,7 +14600,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -14629,7 +14627,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -14656,7 +14654,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -14683,7 +14681,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -14710,7 +14708,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -14737,7 +14735,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -14764,7 +14762,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -14791,7 +14789,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -14818,7 +14816,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -14845,7 +14843,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -14872,7 +14870,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -14899,7 +14897,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -14926,7 +14924,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -14953,7 +14951,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -14980,7 +14978,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -15007,7 +15005,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -15034,7 +15032,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -15061,7 +15059,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -15088,7 +15086,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -15115,7 +15113,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -15142,7 +15140,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -15169,7 +15167,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -15196,7 +15194,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -15223,7 +15221,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -15250,7 +15248,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -15277,7 +15275,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -15304,7 +15302,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -15331,7 +15329,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -15358,7 +15356,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -15385,7 +15383,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -15412,7 +15410,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -15439,7 +15437,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -15466,7 +15464,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -15493,7 +15491,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -15520,7 +15518,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -15547,7 +15545,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -15574,7 +15572,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -15601,7 +15599,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -15625,7 +15623,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -15652,7 +15650,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -15679,7 +15677,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -15706,7 +15704,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -15733,7 +15731,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -15760,7 +15758,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -15787,7 +15785,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -15814,7 +15812,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -15841,7 +15839,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -15868,7 +15866,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>450</v>
@@ -15895,7 +15893,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -15922,7 +15920,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -15949,7 +15947,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -15976,7 +15974,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -16003,7 +16001,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -16030,7 +16028,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -16057,7 +16055,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -16084,7 +16082,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -16111,7 +16109,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -16138,7 +16136,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -16165,7 +16163,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -16192,7 +16190,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -16219,7 +16217,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -16246,7 +16244,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -16273,7 +16271,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -16300,7 +16298,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -16327,7 +16325,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -16354,7 +16352,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -16381,7 +16379,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -16408,7 +16406,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -16435,7 +16433,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -16462,7 +16460,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -16489,7 +16487,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -16516,7 +16514,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -16543,7 +16541,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -16570,7 +16568,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -16597,7 +16595,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -16624,7 +16622,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -16651,7 +16649,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -16678,7 +16676,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -16705,7 +16703,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -16732,7 +16730,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -16759,7 +16757,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -16786,7 +16784,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -16813,7 +16811,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -16840,7 +16838,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -16867,7 +16865,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -16894,7 +16892,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -16921,7 +16919,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -16948,7 +16946,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -16975,7 +16973,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -17002,7 +17000,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -17029,7 +17027,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -17056,7 +17054,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -17083,7 +17081,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -17110,7 +17108,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -17137,7 +17135,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -17164,7 +17162,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -17191,7 +17189,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -17218,7 +17216,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -17245,7 +17243,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -17272,7 +17270,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -17299,7 +17297,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -17326,7 +17324,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -17353,7 +17351,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -17380,7 +17378,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -17407,7 +17405,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -17434,7 +17432,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -17461,7 +17459,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -17488,7 +17486,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -17515,7 +17513,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -17542,7 +17540,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -17569,7 +17567,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -17596,7 +17594,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <f t="shared" ref="A516:A523" si="8">A515+1</f>
         <v>514</v>
@@ -17623,7 +17621,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -17650,7 +17648,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -17677,7 +17675,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -17704,7 +17702,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -17731,7 +17729,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -17758,7 +17756,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -17785,7 +17783,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -17813,25 +17811,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G523" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sistemas de óleo lubrificante"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G523" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF32C28E-5575-4160-B181-302A539B5D23}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/portugues/pt_troubleshooting.xlsx
+++ b/portugues/pt_troubleshooting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\chatbot_hipotese\portugues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\portugues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7123C1-1255-4B7D-A155-05E8BAFBC791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8AC21A-852A-49D1-AA1E-4C8F63EDC95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
